--- a/src/test/resources/TestData/tasks.xlsx
+++ b/src/test/resources/TestData/tasks.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhubs\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
   <si>
     <t>Sno</t>
   </si>
@@ -302,6 +298,15 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>itextcontext</t>
+  </si>
+  <si>
+    <t>log4j implementation</t>
+  </si>
+  <si>
+    <t>reportng</t>
   </si>
 </sst>
 </file>
@@ -691,7 +696,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +857,9 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -862,7 +869,9 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -872,7 +881,9 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>

--- a/src/test/resources/TestData/tasks.xlsx
+++ b/src/test/resources/TestData/tasks.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JenkinsSample\JenkinsSample\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="4065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7740" windowHeight="2730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>Sno</t>
   </si>
@@ -307,6 +311,42 @@
   </si>
   <si>
     <t>reportng</t>
+  </si>
+  <si>
+    <t>8/26/2016</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Parallel class</t>
+  </si>
+  <si>
+    <t>Parallel test</t>
+  </si>
+  <si>
+    <t>Log4j per test cases</t>
+  </si>
+  <si>
+    <t>Log4j file</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Provided Basic info</t>
+  </si>
+  <si>
+    <t>basics of jira</t>
+  </si>
+  <si>
+    <t>youtube</t>
   </si>
 </sst>
 </file>
@@ -358,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -390,11 +430,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -413,6 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,9 +758,10 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,8 +780,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -742,7 +798,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -755,7 +811,7 @@
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -771,7 +827,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -789,7 +845,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -803,7 +859,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -817,7 +873,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -826,10 +882,12 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -841,7 +899,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -853,7 +911,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -862,10 +920,12 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -877,7 +937,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -889,67 +949,84 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -958,8 +1035,11 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -969,7 +1049,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -978,7 +1058,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
